--- a/Buoi03_TAVINHLAN_TRANHOANGMINH_Bai1.xlsx
+++ b/Buoi03_TAVINHLAN_TRANHOANGMINH_Bai1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9cc18c144114641/Documents/MOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAN\OneDrive\Documents\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{A2D5D929-41C2-4578-A985-354B9207E066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD3521F-4205-41D9-9BA7-9ABA30EC25E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B0EC4-F84A-424C-B504-490C040B7090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{74F8C960-74E2-4814-AD01-5E8E0B85FFD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{74F8C960-74E2-4814-AD01-5E8E0B85FFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sinh viên điểm &lt;7" sheetId="6" r:id="rId1"/>
-    <sheet name="Sinh viên điểm &gt;7" sheetId="7" r:id="rId2"/>
-    <sheet name="Điểm tổng hợp" sheetId="1" r:id="rId3"/>
-    <sheet name="Các bảng tham chiếu &amp; Thống kê" sheetId="5" r:id="rId4"/>
+    <sheet name="Sinh viên điểm &gt;=7" sheetId="7" r:id="rId2"/>
+    <sheet name="Các bảng tham chiếu &amp; Thống kê" sheetId="5" r:id="rId3"/>
+    <sheet name="Điểm tổng hợp" sheetId="1" r:id="rId4"/>
     <sheet name="Điểm thực hành các buổi " sheetId="2" r:id="rId5"/>
     <sheet name="Điểm bài tập lớn" sheetId="3" r:id="rId6"/>
     <sheet name="Điểm lý thuyết" sheetId="4" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -973,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1070,7 +1070,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,18 +1161,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2414,15 +2415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>81641</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>283030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2448,10 +2449,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2771,10 +2768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E6F6E7-2E75-4405-AF1A-0739FD077E51}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <pane xSplit="10" ySplit="12" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2826,224 +2826,224 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:K10">_xlfn._xlws.FILTER('Điểm tổng hợp'!A7:K45,'Điểm tổng hợp'!J7:J45&lt;2,"khong")</f>
-        <v>9</v>
+        <f t="array" ref="A2:K27">_xlfn._xlws.FILTER('Điểm tổng hợp'!A7:K45,'Điểm tổng hợp'!J7:J45&lt;7,"khong")</f>
+        <v>1</v>
       </c>
       <c r="B2" s="13" t="str">
-        <v>3B1605281</v>
+        <v>0B1505719</v>
       </c>
       <c r="C2" s="13" t="str">
-        <v>Trần Thị Kim Khoa</v>
+        <v>Nguyễn Phước Hiếu</v>
       </c>
       <c r="D2" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="13">
         <v>0.5</v>
       </c>
-      <c r="E2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
       <c r="H2" s="13">
-        <v>-3</v>
+        <v>4.2</v>
       </c>
       <c r="I2" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="13" t="str">
-        <v>F</v>
+        <v>D+</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="13" t="str">
-        <v>0B1605285</v>
+        <v>1B1505915</v>
       </c>
       <c r="C3" s="13" t="str">
-        <v>Huỳnh Thị Hồng Loan</v>
+        <v>Lý Minh Trí</v>
       </c>
       <c r="D3" s="13">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="13">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F3" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="13">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="I3" s="13">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J3" s="13">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K3" s="13" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="str">
-        <v>4B1607025</v>
+        <v>0B1509874</v>
       </c>
       <c r="C4" s="13" t="str">
-        <v>Nguyễn Chí Thanh</v>
+        <v>Nguyễn Kiều Mi</v>
       </c>
       <c r="D4" s="13">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="13">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="13">
-        <v>-3</v>
+        <v>5.8</v>
       </c>
       <c r="I4" s="13">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J4" s="13">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" s="13" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5" s="13" t="str">
-        <v>5B1609765</v>
+        <v>0B1509929</v>
       </c>
       <c r="C5" s="13" t="str">
-        <v>Trần Nam Dương</v>
+        <v>Đặng Duy Linh</v>
       </c>
       <c r="D5" s="13">
         <v>0.4</v>
       </c>
       <c r="E5" s="13">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F5" s="13">
         <v>0.35</v>
       </c>
       <c r="G5" s="13">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13">
-        <v>-3</v>
+        <v>4.5</v>
       </c>
       <c r="I5" s="13">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J5" s="13">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="K5" s="13" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B6" s="13" t="str">
-        <v>1B1706550</v>
+        <v>2B1605223</v>
       </c>
       <c r="C6" s="13" t="str">
-        <v>Lê Thanh Tùng</v>
+        <v>Lê Thị Trúc Linh</v>
       </c>
       <c r="D6" s="13">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E6" s="13">
         <v>0.4</v>
       </c>
       <c r="F6" s="13">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G6" s="13">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="13">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I6" s="13">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="J6" s="13">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="K6" s="13" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B7" s="13" t="str">
-        <v>0B1706626</v>
+        <v>0B1605249</v>
       </c>
       <c r="C7" s="13" t="str">
-        <v>Lại Ngọc Hoàng Phi</v>
+        <v>Lê Minh Thông</v>
       </c>
       <c r="D7" s="13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="I7" s="13">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="J7" s="13">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="K7" s="13" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13" t="str">
-        <v>3B1706630</v>
+        <v>3B1605281</v>
       </c>
       <c r="C8" s="13" t="str">
-        <v>Nguyễn Khắc Minh Phúc</v>
+        <v>Trần Thị Kim Khoa</v>
       </c>
       <c r="D8" s="13">
         <v>0.5</v>
@@ -3052,7 +3052,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
@@ -3072,31 +3072,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B9" s="13" t="str">
-        <v>3B1706643</v>
+        <v>0B1605285</v>
       </c>
       <c r="C9" s="13" t="str">
-        <v>Nguyễn Thị Phương Thảo</v>
+        <v>Huỳnh Thị Hồng Loan</v>
       </c>
       <c r="D9" s="13">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E9" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F9" s="13">
         <v>0.45</v>
       </c>
       <c r="G9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="13">
-        <v>-3</v>
+        <v>6.8</v>
       </c>
       <c r="I9" s="13">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J9" s="13">
         <v>0</v>
@@ -3107,181 +3107,633 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <v>0B1605291</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <v>Trần Thị Thanh Nguyên</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="J10" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="K10" s="13" t="str">
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13">
+        <v>13</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <v>0B1606845</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <v>Vũ Mạnh Thắng</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="J11" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="K11" s="13" t="str">
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <v>0B1607017</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <v>Cao Ngọc Quyên</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>6</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="K12" s="13" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <v>4B1607025</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <v>Nguyễn Chí Thanh</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="13">
+        <v>-3</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <v>0B1609533</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <v>Nguyễn Bích Ngân</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="J14" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="K14" s="13" t="str">
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <v>0B1609762</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <v>Nguyễn Hoàng Châu</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="I15" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="J15" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="K15" s="13" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <v>5B1609765</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <v>Trần Nam Dương</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.35</v>
+      </c>
+      <c r="H16" s="13">
+        <v>-3</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <v>0B1609773</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <v>Đào Nguyễn Duy Khanh</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="K17" s="13" t="str">
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13">
+        <v>22</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <v>1B1706550</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <v>Lê Thanh Tùng</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="13">
+        <v>25</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <v>1B1706589</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <v>Hồ Thị Mỷ Huyền</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="J19" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="K19" s="13" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="13">
+        <v>29</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <v>0B1706626</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <v>Lại Ngọc Hoàng Phi</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="I20" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13">
+        <v>30</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <v>3B1706630</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <v>Nguyễn Khắc Minh Phúc</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-3</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <v>3B1706643</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <v>Nguyễn Thị Phương Thảo</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-3</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="13">
         <v>35</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B23" s="13" t="str">
         <v>0B1706666</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C23" s="13" t="str">
         <v>Trịnh Uyên</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D23" s="13">
         <v>0.5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E23" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F23" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G23" s="13">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H23" s="13">
         <v>7.5</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I23" s="13">
         <v>5</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="str">
+      <c r="K23" s="13" t="str">
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+    <row r="24" spans="1:11">
+      <c r="A24" s="13">
+        <v>36</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <v>1B1706877</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <v>Nguyễn Anh Thư</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="I24" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J24" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="K24" s="13" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="13">
+        <v>37</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <v>0B1706892</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <v>Huỳnh Lê Tỷ</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="I25" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="J25" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="K25" s="13" t="str">
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="13">
+        <v>38</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <v>0B1709289</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <v>Nguyễn Ngọc Luyến</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="I26" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="J26" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="K26" s="13" t="str">
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="13">
+        <v>39</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <v>1B1709313</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <v>Võ Thị Thùy Trang</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="J27" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K27" s="13" t="str">
+        <v>D</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3293,7 +3745,10 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3343,1054 +3798,680 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:K31">_xlfn._xlws.FILTER('Điểm tổng hợp'!A7:K45,'Điểm tổng hợp'!J7:J45&gt;=2,"khong")</f>
-        <v>1</v>
+        <f t="array" ref="A2:K14">_xlfn._xlws.FILTER('Điểm tổng hợp'!A7:K45, 'Điểm tổng hợp'!J7:J45&gt;=7)</f>
+        <v>6</v>
       </c>
       <c r="B2" s="13" t="str">
-        <v>0B1505719</v>
+        <v>0B1605235</v>
       </c>
       <c r="C2" s="13" t="str">
-        <v>Nguyễn Phước Hiếu</v>
-      </c>
-      <c r="D2" s="13">
+        <v>Phạm Thị Huỳnh Như</v>
+      </c>
+      <c r="D2" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="65">
         <v>0.45</v>
       </c>
-      <c r="E2" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="65">
         <v>0.5</v>
       </c>
-      <c r="H2" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>4</v>
-      </c>
-      <c r="J2" s="13">
-        <v>5</v>
-      </c>
-      <c r="K2" s="13" t="str">
-        <v>D+</v>
+      <c r="G2" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="I2" s="65">
+        <v>7.1</v>
+      </c>
+      <c r="J2" s="65">
+        <v>8.1</v>
+      </c>
+      <c r="K2" s="65" t="str">
+        <v>B+</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="13" t="str">
-        <v>1B1505915</v>
+        <v>0B1605257</v>
       </c>
       <c r="C3" s="13" t="str">
-        <v>Lý Minh Trí</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G3" s="13">
+        <v>Quách Thu Vân</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="65">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="I3" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="J3" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="K3" s="13" t="str">
-        <v>C</v>
+      <c r="H3" s="65">
+        <v>7.7</v>
+      </c>
+      <c r="I3" s="65">
+        <v>6.9</v>
+      </c>
+      <c r="J3" s="65">
+        <v>7.9</v>
+      </c>
+      <c r="K3" s="65" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13" t="str">
-        <v>0B1509874</v>
+        <v>1B1605344</v>
       </c>
       <c r="C4" s="13" t="str">
-        <v>Nguyễn Kiều Mi</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="13">
+        <v>Nguyễn Thị Thúy Nga</v>
+      </c>
+      <c r="D4" s="65">
         <v>0.3</v>
       </c>
-      <c r="G4" s="13">
+      <c r="E4" s="65">
         <v>0.5</v>
       </c>
-      <c r="H4" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="I4" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="J4" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="K4" s="13" t="str">
-        <v>C</v>
+      <c r="F4" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="65">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I4" s="65">
+        <v>6.5</v>
+      </c>
+      <c r="J4" s="65">
+        <v>7</v>
+      </c>
+      <c r="K4" s="65" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13" t="str">
-        <v>0B1509929</v>
+        <v>2B1609759</v>
       </c>
       <c r="C5" s="13" t="str">
-        <v>Đặng Duy Linh</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="J5" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="K5" s="13" t="str">
-        <v>C</v>
+        <v>Nguyễn Hải Anh</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="65">
+        <v>7</v>
+      </c>
+      <c r="I5" s="65">
+        <v>7.2</v>
+      </c>
+      <c r="J5" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="K5" s="65" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6" s="13" t="str">
-        <v>2B1605223</v>
+        <v>0B1704708</v>
       </c>
       <c r="C6" s="13" t="str">
-        <v>Lê Thị Trúc Linh</v>
-      </c>
-      <c r="D6" s="13">
+        <v>Ngô Hùng Vĩ</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="65">
         <v>0.45</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="I6" s="13">
-        <v>5.3</v>
-      </c>
-      <c r="J6" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="K6" s="13" t="str">
-        <v>C</v>
+      <c r="G6" s="65">
+        <v>1.35</v>
+      </c>
+      <c r="H6" s="65">
+        <v>6.7</v>
+      </c>
+      <c r="I6" s="65">
+        <v>6.7</v>
+      </c>
+      <c r="J6" s="65">
+        <v>7.7</v>
+      </c>
+      <c r="K6" s="65" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" s="13" t="str">
-        <v>0B1605235</v>
+        <v>0B1706555</v>
       </c>
       <c r="C7" s="13" t="str">
-        <v>Phạm Thị Huỳnh Như</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="F7" s="13">
+        <v>Lê Hồng Quốc Vương</v>
+      </c>
+      <c r="D7" s="65">
         <v>0.5</v>
       </c>
-      <c r="G7" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="E7" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="65">
         <v>7.5</v>
       </c>
-      <c r="I7" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="K7" s="13" t="str">
+      <c r="I7" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="J7" s="65">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="65" t="str">
         <v>B+</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8" s="13" t="str">
-        <v>0B1605249</v>
+        <v>2B1706560</v>
       </c>
       <c r="C8" s="13" t="str">
-        <v>Lê Minh Thông</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>5.3</v>
-      </c>
-      <c r="I8" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="J8" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="K8" s="13" t="str">
-        <v>C</v>
+        <v>Huỳnh Hoàng Ẩn</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="G8" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="H8" s="65">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I8" s="65">
+        <v>7.7</v>
+      </c>
+      <c r="J8" s="65">
+        <v>8</v>
+      </c>
+      <c r="K8" s="65" t="str">
+        <v>B+</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" s="13" t="str">
-        <v>0B1605257</v>
+        <v>0B1706597</v>
       </c>
       <c r="C9" s="13" t="str">
-        <v>Quách Thu Vân</v>
-      </c>
-      <c r="D9" s="13">
+        <v>Đặng Trung Kiên</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="65">
         <v>0.45</v>
       </c>
-      <c r="E9" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="G9" s="65">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
-        <v>7.7</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="65">
+        <v>7.8</v>
+      </c>
+      <c r="I9" s="65">
         <v>6.9</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="65">
         <v>7.9</v>
       </c>
-      <c r="K9" s="13" t="str">
+      <c r="K9" s="65" t="str">
         <v>B</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10" s="13" t="str">
-        <v>0B1605291</v>
+        <v>0B1706606</v>
       </c>
       <c r="C10" s="13" t="str">
-        <v>Trần Thị Thanh Nguyên</v>
-      </c>
-      <c r="D10" s="13">
+        <v>Ngụy Hữu Lộc</v>
+      </c>
+      <c r="D10" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="65">
         <v>0.45</v>
       </c>
-      <c r="E10" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="I10" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="J10" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="K10" s="13" t="str">
-        <v>C+</v>
+      <c r="G10" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="65">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I10" s="65">
+        <v>8.1</v>
+      </c>
+      <c r="J10" s="65">
+        <v>9.1</v>
+      </c>
+      <c r="K10" s="65" t="str">
+        <v>B+</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11" s="13" t="str">
-        <v>1B1605344</v>
+        <v>0B1706610</v>
       </c>
       <c r="C11" s="13" t="str">
-        <v>Nguyễn Thị Thúy Nga</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="13">
+        <v>Nguyễn Trà Mi</v>
+      </c>
+      <c r="D11" s="65">
         <v>0.5</v>
       </c>
-      <c r="F11" s="13">
+      <c r="E11" s="65">
         <v>0.45</v>
       </c>
-      <c r="G11" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="J11" s="13">
-        <v>7</v>
-      </c>
-      <c r="K11" s="13" t="str">
-        <v>B</v>
+      <c r="F11" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="G11" s="65">
+        <v>1</v>
+      </c>
+      <c r="H11" s="65">
+        <v>7.8</v>
+      </c>
+      <c r="I11" s="65">
+        <v>7.1</v>
+      </c>
+      <c r="J11" s="65">
+        <v>8.1</v>
+      </c>
+      <c r="K11" s="65" t="str">
+        <v>B+</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B12" s="13" t="str">
-        <v>0B1606845</v>
+        <v>0B1706633</v>
       </c>
       <c r="C12" s="13" t="str">
-        <v>Vũ Mạnh Thắng</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="13">
+        <v>Trần Thị Hoàng Quyên</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="65">
         <v>0.5</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="65">
         <v>0.5</v>
       </c>
-      <c r="G12" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H12" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="I12" s="13">
-        <v>5.9</v>
-      </c>
-      <c r="J12" s="13">
-        <v>6.9</v>
-      </c>
-      <c r="K12" s="13" t="str">
-        <v>C+</v>
+      <c r="G12" s="65">
+        <v>1</v>
+      </c>
+      <c r="H12" s="65">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I12" s="65">
+        <v>7.9</v>
+      </c>
+      <c r="J12" s="65">
+        <v>8.9</v>
+      </c>
+      <c r="K12" s="65" t="str">
+        <v>B+</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B13" s="13" t="str">
-        <v>0B1607017</v>
+        <v>0B1706641</v>
       </c>
       <c r="C13" s="13" t="str">
-        <v>Cao Ngọc Quyên</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="13">
+        <v>Trương Quốc Thái</v>
+      </c>
+      <c r="D13" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="65">
         <v>0.45</v>
       </c>
-      <c r="G13" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H13" s="13">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="J13" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="K13" s="13" t="str">
-        <v>C</v>
+      <c r="G13" s="65">
+        <v>1</v>
+      </c>
+      <c r="H13" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="I13" s="65">
+        <v>6.8</v>
+      </c>
+      <c r="J13" s="65">
+        <v>7.8</v>
+      </c>
+      <c r="K13" s="65" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="13">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13" t="str">
-        <v>0B1609533</v>
+        <v>1B1706655</v>
       </c>
       <c r="C14" s="13" t="str">
-        <v>Nguyễn Bích Ngân</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="13">
+        <v>Nguyễn Chí Tôn</v>
+      </c>
+      <c r="D14" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="65">
+        <v>0</v>
+      </c>
+      <c r="F14" s="65">
         <v>0.45</v>
       </c>
-      <c r="F14" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="I14" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="J14" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="K14" s="13" t="str">
-        <v>C+</v>
+      <c r="G14" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="65">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I14" s="65">
+        <v>6.6</v>
+      </c>
+      <c r="J14" s="65">
+        <v>7.1</v>
+      </c>
+      <c r="K14" s="65" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="13">
-        <v>17</v>
-      </c>
-      <c r="B15" s="13" t="str">
-        <v>2B1609759</v>
-      </c>
-      <c r="C15" s="13" t="str">
-        <v>Nguyễn Hải Anh</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="13">
-        <v>7</v>
-      </c>
-      <c r="I15" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="J15" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="K15" s="13" t="str">
-        <v>B</v>
-      </c>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="13">
-        <v>18</v>
-      </c>
-      <c r="B16" s="13" t="str">
-        <v>0B1609762</v>
-      </c>
-      <c r="C16" s="13" t="str">
-        <v>Nguyễn Hoàng Châu</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="I16" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="J16" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="K16" s="13" t="str">
-        <v>C</v>
-      </c>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="13">
-        <v>20</v>
-      </c>
-      <c r="B17" s="13" t="str">
-        <v>0B1609773</v>
-      </c>
-      <c r="C17" s="13" t="str">
-        <v>Đào Nguyễn Duy Khanh</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="H17" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="I17" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="J17" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="K17" s="13" t="str">
-        <v>C+</v>
-      </c>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="13">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13" t="str">
-        <v>0B1704708</v>
-      </c>
-      <c r="C18" s="13" t="str">
-        <v>Ngô Hùng Vĩ</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1.35</v>
-      </c>
-      <c r="H18" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="I18" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="J18" s="13">
-        <v>7.7</v>
-      </c>
-      <c r="K18" s="13" t="str">
-        <v>B</v>
-      </c>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="13">
-        <v>23</v>
-      </c>
-      <c r="B19" s="13" t="str">
-        <v>0B1706555</v>
-      </c>
-      <c r="C19" s="13" t="str">
-        <v>Lê Hồng Quốc Vương</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H19" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="I19" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="J19" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="K19" s="13" t="str">
-        <v>B+</v>
-      </c>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="13">
-        <v>24</v>
-      </c>
-      <c r="B20" s="13" t="str">
-        <v>2B1706560</v>
-      </c>
-      <c r="C20" s="13" t="str">
-        <v>Huỳnh Hoàng Ẩn</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="H20" s="13">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I20" s="13">
-        <v>7.7</v>
-      </c>
-      <c r="J20" s="13">
-        <v>8</v>
-      </c>
-      <c r="K20" s="13" t="str">
-        <v>B+</v>
-      </c>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13">
-        <v>25</v>
-      </c>
-      <c r="B21" s="13" t="str">
-        <v>1B1706589</v>
-      </c>
-      <c r="C21" s="13" t="str">
-        <v>Hồ Thị Mỷ Huyền</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="I21" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="J21" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="K21" s="13" t="str">
-        <v>C</v>
-      </c>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="13">
-        <v>26</v>
-      </c>
-      <c r="B22" s="13" t="str">
-        <v>0B1706597</v>
-      </c>
-      <c r="C22" s="13" t="str">
-        <v>Đặng Trung Kiên</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="I22" s="13">
-        <v>6.9</v>
-      </c>
-      <c r="J22" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="K22" s="13" t="str">
-        <v>B</v>
-      </c>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="13">
-        <v>27</v>
-      </c>
-      <c r="B23" s="13" t="str">
-        <v>0B1706606</v>
-      </c>
-      <c r="C23" s="13" t="str">
-        <v>Ngụy Hữu Lộc</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="13">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I23" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="J23" s="13">
-        <v>9.1</v>
-      </c>
-      <c r="K23" s="13" t="str">
-        <v>B+</v>
-      </c>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="13">
-        <v>28</v>
-      </c>
-      <c r="B24" s="13" t="str">
-        <v>0B1706610</v>
-      </c>
-      <c r="C24" s="13" t="str">
-        <v>Nguyễn Trà Mi</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="I24" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="J24" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="K24" s="13" t="str">
-        <v>B+</v>
-      </c>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="13">
-        <v>31</v>
-      </c>
-      <c r="B25" s="13" t="str">
-        <v>0B1706633</v>
-      </c>
-      <c r="C25" s="13" t="str">
-        <v>Trần Thị Hoàng Quyên</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I25" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="J25" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="K25" s="13" t="str">
-        <v>B+</v>
-      </c>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="13">
-        <v>32</v>
-      </c>
-      <c r="B26" s="13" t="str">
-        <v>0B1706641</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <v>Trương Quốc Thái</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="I26" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="J26" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="K26" s="13" t="str">
-        <v>B</v>
-      </c>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="13">
-        <v>34</v>
-      </c>
-      <c r="B27" s="13" t="str">
-        <v>1B1706655</v>
-      </c>
-      <c r="C27" s="13" t="str">
-        <v>Nguyễn Chí Tôn</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I27" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="J27" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="K27" s="13" t="str">
-        <v>B</v>
-      </c>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="13">
-        <v>36</v>
-      </c>
-      <c r="B28" s="13" t="str">
-        <v>1B1706877</v>
-      </c>
-      <c r="C28" s="13" t="str">
-        <v>Nguyễn Anh Thư</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="I28" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J28" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="K28" s="13" t="str">
-        <v>C</v>
-      </c>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="13">
-        <v>37</v>
-      </c>
-      <c r="B29" s="13" t="str">
-        <v>0B1706892</v>
-      </c>
-      <c r="C29" s="13" t="str">
-        <v>Huỳnh Lê Tỷ</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H29" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="I29" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="J29" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="K29" s="13" t="str">
-        <v>C+</v>
-      </c>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="13">
-        <v>38</v>
-      </c>
-      <c r="B30" s="13" t="str">
-        <v>0B1709289</v>
-      </c>
-      <c r="C30" s="13" t="str">
-        <v>Nguyễn Ngọc Luyến</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="I30" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="J30" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="K30" s="13" t="str">
-        <v>C+</v>
-      </c>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="13">
-        <v>39</v>
-      </c>
-      <c r="B31" s="13" t="str">
-        <v>1B1709313</v>
-      </c>
-      <c r="C31" s="13" t="str">
-        <v>Võ Thị Thùy Trang</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="I31" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="J31" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K31" s="13" t="str">
-        <v>D</v>
-      </c>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4401,1896 +4482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF633C0-DA7F-47E1-9597-FCB1D9655FA4}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1043</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34">
-        <v>8</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34">
-        <v>1</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A6" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B7,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Phước Hiếu</v>
-      </c>
-      <c r="D7" s="16">
-        <f>VLOOKUP(RIGHT(B7,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E7" s="16">
-        <f>VLOOKUP(RIGHT(B7,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="16">
-        <f>VLOOKUP(RIGHT(B7,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="16">
-        <f>VLOOKUP(RIGHT(B7,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="16">
-        <f>VLOOKUP(RIGHT(B7,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>4.2</v>
-      </c>
-      <c r="I7" s="16">
-        <f>ROUND(IF(H7=-3,0,D7+E7+F7+G7+H7*0.6),1)</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="16">
-        <f>ROUND(IF(OR(G7=0,VALUE(LEFT(B7,1))&gt;2),0,I7+VLOOKUP(VALUE(LEFT(B7,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>5</v>
-      </c>
-      <c r="K7" s="63" t="str">
-        <f>IF(J7=9,"A",
-IF(J7&gt;=8,"B+",
-IF(J7&gt;=7,"B",
-IF(J7&gt;=6.5,"C+",
-IF(J7&gt;=5.5,"C",
-IF(J7&gt;=5,"D+",
-IF(J7&gt;=4,"D","F")))))))</f>
-        <v>D+</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B8,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Lý Minh Trí</v>
-      </c>
-      <c r="D8" s="16">
-        <f>VLOOKUP(RIGHT(B8,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="16">
-        <f>VLOOKUP(RIGHT(B8,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="F8" s="16">
-        <f>VLOOKUP(RIGHT(B8,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="16">
-        <f>VLOOKUP(RIGHT(B8,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="16">
-        <f>VLOOKUP(RIGHT(B8,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.8</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I8:I45" si="0">ROUND(IF(H8=-3,0,D8+E8+F8+G8+H8*0.6),1)</f>
-        <v>5.7</v>
-      </c>
-      <c r="J8" s="16">
-        <f>ROUND(IF(OR(G8=0,VALUE(LEFT(B8,1))&gt;2),0,I8+VLOOKUP(VALUE(LEFT(B8,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.2</v>
-      </c>
-      <c r="K8" s="63" t="str">
-        <f t="shared" ref="K8:K45" si="1">IF(J8=9,"A",
-IF(J8&gt;=8,"B+",
-IF(J8&gt;=7,"B",
-IF(J8&gt;=6.5,"C+",
-IF(J8&gt;=5.5,"C",
-IF(J8&gt;=5,"D+",
-IF(J8&gt;=4,"D","F")))))))</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A9" s="33">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B9,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Kiều Mi</v>
-      </c>
-      <c r="D9" s="16">
-        <f>VLOOKUP(RIGHT(B9,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="16">
-        <f>VLOOKUP(RIGHT(B9,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="16">
-        <f>VLOOKUP(RIGHT(B9,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="16">
-        <f>VLOOKUP(RIGHT(B9,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="16">
-        <f>VLOOKUP(RIGHT(B9,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.8</v>
-      </c>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="J9" s="16">
-        <f>ROUND(IF(OR(G9=0,VALUE(LEFT(B9,1))&gt;2),0,I9+VLOOKUP(VALUE(LEFT(B9,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>5.8</v>
-      </c>
-      <c r="K9" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A10" s="33">
-        <v>4</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B10,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Đặng Duy Linh</v>
-      </c>
-      <c r="D10" s="16">
-        <f>VLOOKUP(RIGHT(B10,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="16">
-        <f>VLOOKUP(RIGHT(B10,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="16">
-        <f>VLOOKUP(RIGHT(B10,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="G10" s="16">
-        <f>VLOOKUP(RIGHT(B10,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
-        <f>VLOOKUP(RIGHT(B10,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="J10" s="16">
-        <f>ROUND(IF(OR(G10=0,VALUE(LEFT(B10,1))&gt;2),0,I10+VLOOKUP(VALUE(LEFT(B10,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>5.7</v>
-      </c>
-      <c r="K10" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A11" s="33">
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B11,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Lê Thị Trúc Linh</v>
-      </c>
-      <c r="D11" s="16">
-        <f>VLOOKUP(RIGHT(B11,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E11" s="16">
-        <f>VLOOKUP(RIGHT(B11,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="16">
-        <f>VLOOKUP(RIGHT(B11,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="G11" s="16">
-        <f>VLOOKUP(RIGHT(B11,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H11" s="16">
-        <f>VLOOKUP(RIGHT(B11,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="J11" s="16">
-        <f>ROUND(IF(OR(G11=0,VALUE(LEFT(B11,1))&gt;2),0,I11+VLOOKUP(VALUE(LEFT(B11,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>5.6</v>
-      </c>
-      <c r="K11" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A12" s="33">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B12,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Phạm Thị Huỳnh Như</v>
-      </c>
-      <c r="D12" s="16">
-        <f>VLOOKUP(RIGHT(B12,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="16">
-        <f>VLOOKUP(RIGHT(B12,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F12" s="16">
-        <f>VLOOKUP(RIGHT(B12,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="16">
-        <f>VLOOKUP(RIGHT(B12,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.2</v>
-      </c>
-      <c r="H12" s="16">
-        <f>VLOOKUP(RIGHT(B12,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="J12" s="16">
-        <f>ROUND(IF(OR(G12=0,VALUE(LEFT(B12,1))&gt;2),0,I12+VLOOKUP(VALUE(LEFT(B12,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>8.1</v>
-      </c>
-      <c r="K12" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B+</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A13" s="33">
-        <v>7</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B13,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Lê Minh Thông</v>
-      </c>
-      <c r="D13" s="16">
-        <f>VLOOKUP(RIGHT(B13,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E13" s="16">
-        <f>VLOOKUP(RIGHT(B13,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="16">
-        <f>VLOOKUP(RIGHT(B13,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G13" s="16">
-        <f>VLOOKUP(RIGHT(B13,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
-        <f>VLOOKUP(RIGHT(B13,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.3</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="J13" s="16">
-        <f>ROUND(IF(OR(G13=0,VALUE(LEFT(B13,1))&gt;2),0,I13+VLOOKUP(VALUE(LEFT(B13,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.4</v>
-      </c>
-      <c r="K13" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A14" s="33">
-        <v>8</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B14,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Quách Thu Vân</v>
-      </c>
-      <c r="D14" s="16">
-        <f>VLOOKUP(RIGHT(B14,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E14" s="16">
-        <f>VLOOKUP(RIGHT(B14,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="16">
-        <f>VLOOKUP(RIGHT(B14,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G14" s="16">
-        <f>VLOOKUP(RIGHT(B14,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <f>VLOOKUP(RIGHT(B14,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.7</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="J14" s="16">
-        <f>ROUND(IF(OR(G14=0,VALUE(LEFT(B14,1))&gt;2),0,I14+VLOOKUP(VALUE(LEFT(B14,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7.9</v>
-      </c>
-      <c r="K14" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A15" s="33">
-        <v>9</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B15,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Trần Thị Kim Khoa</v>
-      </c>
-      <c r="D15" s="16">
-        <f>VLOOKUP(RIGHT(B15,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="16">
-        <f>VLOOKUP(RIGHT(B15,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="16">
-        <f>VLOOKUP(RIGHT(B15,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="16">
-        <f>VLOOKUP(RIGHT(B15,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
-        <f>VLOOKUP(RIGHT(B15,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <f>ROUND(IF(OR(G15=0,VALUE(LEFT(B15,1))&gt;2),0,I15+VLOOKUP(VALUE(LEFT(B15,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A16" s="33">
-        <v>10</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B16,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Huỳnh Thị Hồng Loan</v>
-      </c>
-      <c r="D16" s="16">
-        <f>VLOOKUP(RIGHT(B16,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E16" s="16">
-        <f>VLOOKUP(RIGHT(B16,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F16" s="16">
-        <f>VLOOKUP(RIGHT(B16,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G16" s="16">
-        <f>VLOOKUP(RIGHT(B16,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <f>VLOOKUP(RIGHT(B16,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.8</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="J16" s="16">
-        <f>ROUND(IF(OR(G16=0,VALUE(LEFT(B16,1))&gt;2),0,I16+VLOOKUP(VALUE(LEFT(B16,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A17" s="33">
-        <v>11</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B17,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Trần Thị Thanh Nguyên</v>
-      </c>
-      <c r="D17" s="16">
-        <f>VLOOKUP(RIGHT(B17,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E17" s="16">
-        <f>VLOOKUP(RIGHT(B17,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="16">
-        <f>VLOOKUP(RIGHT(B17,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="16">
-        <f>VLOOKUP(RIGHT(B17,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H17" s="16">
-        <f>VLOOKUP(RIGHT(B17,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.3</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
-      </c>
-      <c r="J17" s="16">
-        <f>ROUND(IF(OR(G17=0,VALUE(LEFT(B17,1))&gt;2),0,I17+VLOOKUP(VALUE(LEFT(B17,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.8</v>
-      </c>
-      <c r="K17" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A18" s="33">
-        <v>12</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B18,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Thị Thúy Nga</v>
-      </c>
-      <c r="D18" s="16">
-        <f>VLOOKUP(RIGHT(B18,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="16">
-        <f>VLOOKUP(RIGHT(B18,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="16">
-        <f>VLOOKUP(RIGHT(B18,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G18" s="16">
-        <f>VLOOKUP(RIGHT(B18,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="16">
-        <f>VLOOKUP(RIGHT(B18,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="J18" s="16">
-        <f>ROUND(IF(OR(G18=0,VALUE(LEFT(B18,1))&gt;2),0,I18+VLOOKUP(VALUE(LEFT(B18,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7</v>
-      </c>
-      <c r="K18" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A19" s="33">
-        <v>13</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B19,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Vũ Mạnh Thắng</v>
-      </c>
-      <c r="D19" s="16">
-        <f>VLOOKUP(RIGHT(B19,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E19" s="16">
-        <f>VLOOKUP(RIGHT(B19,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="16">
-        <f>VLOOKUP(RIGHT(B19,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="16">
-        <f>VLOOKUP(RIGHT(B19,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.2</v>
-      </c>
-      <c r="H19" s="16">
-        <f>VLOOKUP(RIGHT(B19,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I19" s="16">
-        <f t="shared" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="J19" s="16">
-        <f>ROUND(IF(OR(G19=0,VALUE(LEFT(B19,1))&gt;2),0,I19+VLOOKUP(VALUE(LEFT(B19,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.9</v>
-      </c>
-      <c r="K19" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A20" s="33">
-        <v>14</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B20,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Cao Ngọc Quyên</v>
-      </c>
-      <c r="D20" s="16">
-        <f>VLOOKUP(RIGHT(B20,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="16">
-        <f>VLOOKUP(RIGHT(B20,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="16">
-        <f>VLOOKUP(RIGHT(B20,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G20" s="16">
-        <f>VLOOKUP(RIGHT(B20,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H20" s="16">
-        <f>VLOOKUP(RIGHT(B20,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="J20" s="16">
-        <f>ROUND(IF(OR(G20=0,VALUE(LEFT(B20,1))&gt;2),0,I20+VLOOKUP(VALUE(LEFT(B20,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.4</v>
-      </c>
-      <c r="K20" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A21" s="33">
-        <v>15</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B21,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Chí Thanh</v>
-      </c>
-      <c r="D21" s="16">
-        <f>VLOOKUP(RIGHT(B21,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="16">
-        <f>VLOOKUP(RIGHT(B21,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F21" s="16">
-        <f>VLOOKUP(RIGHT(B21,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G21" s="16">
-        <f>VLOOKUP(RIGHT(B21,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="16">
-        <f>VLOOKUP(RIGHT(B21,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <f>ROUND(IF(OR(G21=0,VALUE(LEFT(B21,1))&gt;2),0,I21+VLOOKUP(VALUE(LEFT(B21,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A22" s="33">
-        <v>16</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B22,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Bích Ngân</v>
-      </c>
-      <c r="D22" s="16">
-        <f>VLOOKUP(RIGHT(B22,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="16">
-        <f>VLOOKUP(RIGHT(B22,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F22" s="16">
-        <f>VLOOKUP(RIGHT(B22,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G22" s="16">
-        <f>VLOOKUP(RIGHT(B22,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
-        <f>VLOOKUP(RIGHT(B22,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.7</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="J22" s="16">
-        <f>ROUND(IF(OR(G22=0,VALUE(LEFT(B22,1))&gt;2),0,I22+VLOOKUP(VALUE(LEFT(B22,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.7</v>
-      </c>
-      <c r="K22" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A23" s="33">
-        <v>17</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B23,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Hải Anh</v>
-      </c>
-      <c r="D23" s="16">
-        <f>VLOOKUP(RIGHT(B23,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="16">
-        <f>VLOOKUP(RIGHT(B23,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="16">
-        <f>VLOOKUP(RIGHT(B23,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G23" s="16">
-        <f>VLOOKUP(RIGHT(B23,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="16">
-        <f>VLOOKUP(RIGHT(B23,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="J23" s="16">
-        <f>ROUND(IF(OR(G23=0,VALUE(LEFT(B23,1))&gt;2),0,I23+VLOOKUP(VALUE(LEFT(B23,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7.5</v>
-      </c>
-      <c r="K23" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A24" s="33">
-        <v>18</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B24,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Hoàng Châu</v>
-      </c>
-      <c r="D24" s="16">
-        <f>VLOOKUP(RIGHT(B24,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="16">
-        <f>VLOOKUP(RIGHT(B24,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F24" s="16">
-        <f>VLOOKUP(RIGHT(B24,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G24" s="16">
-        <f>VLOOKUP(RIGHT(B24,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H24" s="16">
-        <f>VLOOKUP(RIGHT(B24,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="J24" s="16">
-        <f>ROUND(IF(OR(G24=0,VALUE(LEFT(B24,1))&gt;2),0,I24+VLOOKUP(VALUE(LEFT(B24,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.4</v>
-      </c>
-      <c r="K24" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A25" s="33">
-        <v>19</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B25,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Trần Nam Dương</v>
-      </c>
-      <c r="D25" s="16">
-        <f>VLOOKUP(RIGHT(B25,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="16">
-        <f>VLOOKUP(RIGHT(B25,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F25" s="16">
-        <f>VLOOKUP(RIGHT(B25,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="G25" s="16">
-        <f>VLOOKUP(RIGHT(B25,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.35</v>
-      </c>
-      <c r="H25" s="16">
-        <f>VLOOKUP(RIGHT(B25,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="I25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <f>ROUND(IF(OR(G25=0,VALUE(LEFT(B25,1))&gt;2),0,I25+VLOOKUP(VALUE(LEFT(B25,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A26" s="33">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B26,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Đào Nguyễn Duy Khanh</v>
-      </c>
-      <c r="D26" s="16">
-        <f>VLOOKUP(RIGHT(B26,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="E26" s="16">
-        <f>VLOOKUP(RIGHT(B26,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F26" s="16">
-        <f>VLOOKUP(RIGHT(B26,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <f>VLOOKUP(RIGHT(B26,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.85</v>
-      </c>
-      <c r="H26" s="16">
-        <f>VLOOKUP(RIGHT(B26,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I26" s="16">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="J26" s="16">
-        <f>ROUND(IF(OR(G26=0,VALUE(LEFT(B26,1))&gt;2),0,I26+VLOOKUP(VALUE(LEFT(B26,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.5</v>
-      </c>
-      <c r="K26" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A27" s="33">
-        <v>21</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B27,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Ngô Hùng Vĩ</v>
-      </c>
-      <c r="D27" s="16">
-        <f>VLOOKUP(RIGHT(B27,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="16">
-        <f>VLOOKUP(RIGHT(B27,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F27" s="16">
-        <f>VLOOKUP(RIGHT(B27,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G27" s="16">
-        <f>VLOOKUP(RIGHT(B27,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.35</v>
-      </c>
-      <c r="H27" s="16">
-        <f>VLOOKUP(RIGHT(B27,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.7</v>
-      </c>
-      <c r="I27" s="16">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="J27" s="16">
-        <f>ROUND(IF(OR(G27=0,VALUE(LEFT(B27,1))&gt;2),0,I27+VLOOKUP(VALUE(LEFT(B27,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7.7</v>
-      </c>
-      <c r="K27" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A28" s="33">
-        <v>22</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B28,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Lê Thanh Tùng</v>
-      </c>
-      <c r="D28" s="16">
-        <f>VLOOKUP(RIGHT(B28,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E28" s="16">
-        <f>VLOOKUP(RIGHT(B28,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F28" s="16">
-        <f>VLOOKUP(RIGHT(B28,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G28" s="16">
-        <f>VLOOKUP(RIGHT(B28,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <f>VLOOKUP(RIGHT(B28,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="J28" s="16">
-        <f>ROUND(IF(OR(G28=0,VALUE(LEFT(B28,1))&gt;2),0,I28+VLOOKUP(VALUE(LEFT(B28,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A29" s="33">
-        <v>23</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B29,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Lê Hồng Quốc Vương</v>
-      </c>
-      <c r="D29" s="16">
-        <f>VLOOKUP(RIGHT(B29,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="16">
-        <f>VLOOKUP(RIGHT(B29,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="16">
-        <f>VLOOKUP(RIGHT(B29,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="16">
-        <f>VLOOKUP(RIGHT(B29,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H29" s="16">
-        <f>VLOOKUP(RIGHT(B29,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I29" s="16">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J29" s="16">
-        <f>ROUND(IF(OR(G29=0,VALUE(LEFT(B29,1))&gt;2),0,I29+VLOOKUP(VALUE(LEFT(B29,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>8.5</v>
-      </c>
-      <c r="K29" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B+</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A30" s="33">
-        <v>24</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B30,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Huỳnh Hoàng Ẩn</v>
-      </c>
-      <c r="D30" s="16">
-        <f>VLOOKUP(RIGHT(B30,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E30" s="16">
-        <f>VLOOKUP(RIGHT(B30,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="16">
-        <f>VLOOKUP(RIGHT(B30,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G30" s="16">
-        <f>VLOOKUP(RIGHT(B30,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.2</v>
-      </c>
-      <c r="H30" s="16">
-        <f>VLOOKUP(RIGHT(B30,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I30" s="16">
-        <f t="shared" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="J30" s="16">
-        <f>ROUND(IF(OR(G30=0,VALUE(LEFT(B30,1))&gt;2),0,I30+VLOOKUP(VALUE(LEFT(B30,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>8</v>
-      </c>
-      <c r="K30" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B+</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A31" s="33">
-        <v>25</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B31,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Hồ Thị Mỷ Huyền</v>
-      </c>
-      <c r="D31" s="16">
-        <f>VLOOKUP(RIGHT(B31,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="E31" s="16">
-        <f>VLOOKUP(RIGHT(B31,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F31" s="16">
-        <f>VLOOKUP(RIGHT(B31,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G31" s="16">
-        <f>VLOOKUP(RIGHT(B31,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="16">
-        <f>VLOOKUP(RIGHT(B31,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.8</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
-      </c>
-      <c r="J31" s="16">
-        <f>ROUND(IF(OR(G31=0,VALUE(LEFT(B31,1))&gt;2),0,I31+VLOOKUP(VALUE(LEFT(B31,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.3</v>
-      </c>
-      <c r="K31" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A32" s="33">
-        <v>26</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B32,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Đặng Trung Kiên</v>
-      </c>
-      <c r="D32" s="16">
-        <f>VLOOKUP(RIGHT(B32,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="16">
-        <f>VLOOKUP(RIGHT(B32,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F32" s="16">
-        <f>VLOOKUP(RIGHT(B32,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G32" s="16">
-        <f>VLOOKUP(RIGHT(B32,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="16">
-        <f>VLOOKUP(RIGHT(B32,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.8</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="J32" s="16">
-        <f>ROUND(IF(OR(G32=0,VALUE(LEFT(B32,1))&gt;2),0,I32+VLOOKUP(VALUE(LEFT(B32,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7.9</v>
-      </c>
-      <c r="K32" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A33" s="33">
-        <v>27</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B33,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Ngụy Hữu Lộc</v>
-      </c>
-      <c r="D33" s="16">
-        <f>VLOOKUP(RIGHT(B33,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="16">
-        <f>VLOOKUP(RIGHT(B33,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F33" s="16">
-        <f>VLOOKUP(RIGHT(B33,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G33" s="16">
-        <f>VLOOKUP(RIGHT(B33,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H33" s="16">
-        <f>VLOOKUP(RIGHT(B33,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="J33" s="16">
-        <f>ROUND(IF(OR(G33=0,VALUE(LEFT(B33,1))&gt;2),0,I33+VLOOKUP(VALUE(LEFT(B33,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>9.1</v>
-      </c>
-      <c r="K33" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B+</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A34" s="33">
-        <v>28</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B34,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Trà Mi</v>
-      </c>
-      <c r="D34" s="16">
-        <f>VLOOKUP(RIGHT(B34,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="16">
-        <f>VLOOKUP(RIGHT(B34,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F34" s="16">
-        <f>VLOOKUP(RIGHT(B34,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G34" s="16">
-        <f>VLOOKUP(RIGHT(B34,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="16">
-        <f>VLOOKUP(RIGHT(B34,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.8</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="J34" s="16">
-        <f>ROUND(IF(OR(G34=0,VALUE(LEFT(B34,1))&gt;2),0,I34+VLOOKUP(VALUE(LEFT(B34,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>8.1</v>
-      </c>
-      <c r="K34" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B+</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A35" s="33">
-        <v>29</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B35,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Lại Ngọc Hoàng Phi</v>
-      </c>
-      <c r="D35" s="16">
-        <f>VLOOKUP(RIGHT(B35,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="16">
-        <f>VLOOKUP(RIGHT(B35,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="16">
-        <f>VLOOKUP(RIGHT(B35,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="16">
-        <f>VLOOKUP(RIGHT(B35,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <f>VLOOKUP(RIGHT(B35,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.7</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="J35" s="16">
-        <f>ROUND(IF(OR(G35=0,VALUE(LEFT(B35,1))&gt;2),0,I35+VLOOKUP(VALUE(LEFT(B35,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A36" s="33">
-        <v>30</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B36,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Khắc Minh Phúc</v>
-      </c>
-      <c r="D36" s="16">
-        <f>VLOOKUP(RIGHT(B36,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="16">
-        <f>VLOOKUP(RIGHT(B36,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F36" s="16">
-        <f>VLOOKUP(RIGHT(B36,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G36" s="16">
-        <f>VLOOKUP(RIGHT(B36,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="16">
-        <f>VLOOKUP(RIGHT(B36,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="I36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <f>ROUND(IF(OR(G36=0,VALUE(LEFT(B36,1))&gt;2),0,I36+VLOOKUP(VALUE(LEFT(B36,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A37" s="33">
-        <v>31</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B37,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Trần Thị Hoàng Quyên</v>
-      </c>
-      <c r="D37" s="16">
-        <f>VLOOKUP(RIGHT(B37,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E37" s="16">
-        <f>VLOOKUP(RIGHT(B37,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="16">
-        <f>VLOOKUP(RIGHT(B37,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="16">
-        <f>VLOOKUP(RIGHT(B37,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="16">
-        <f>VLOOKUP(RIGHT(B37,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I37" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="J37" s="16">
-        <f>ROUND(IF(OR(G37=0,VALUE(LEFT(B37,1))&gt;2),0,I37+VLOOKUP(VALUE(LEFT(B37,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>8.9</v>
-      </c>
-      <c r="K37" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B+</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A38" s="33">
-        <v>32</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B38,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Trương Quốc Thái</v>
-      </c>
-      <c r="D38" s="16">
-        <f>VLOOKUP(RIGHT(B38,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E38" s="16">
-        <f>VLOOKUP(RIGHT(B38,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F38" s="16">
-        <f>VLOOKUP(RIGHT(B38,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G38" s="16">
-        <f>VLOOKUP(RIGHT(B38,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="16">
-        <f>VLOOKUP(RIGHT(B38,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I38" s="16">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="J38" s="16">
-        <f>ROUND(IF(OR(G38=0,VALUE(LEFT(B38,1))&gt;2),0,I38+VLOOKUP(VALUE(LEFT(B38,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7.8</v>
-      </c>
-      <c r="K38" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A39" s="33">
-        <v>33</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B39,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Thị Phương Thảo</v>
-      </c>
-      <c r="D39" s="16">
-        <f>VLOOKUP(RIGHT(B39,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E39" s="16">
-        <f>VLOOKUP(RIGHT(B39,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F39" s="16">
-        <f>VLOOKUP(RIGHT(B39,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G39" s="16">
-        <f>VLOOKUP(RIGHT(B39,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="16">
-        <f>VLOOKUP(RIGHT(B39,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <f>ROUND(IF(OR(G39=0,VALUE(LEFT(B39,1))&gt;2),0,I39+VLOOKUP(VALUE(LEFT(B39,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A40" s="33">
-        <v>34</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B40,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Chí Tôn</v>
-      </c>
-      <c r="D40" s="16">
-        <f>VLOOKUP(RIGHT(B40,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E40" s="16">
-        <f>VLOOKUP(RIGHT(B40,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="16">
-        <f>VLOOKUP(RIGHT(B40,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G40" s="16">
-        <f>VLOOKUP(RIGHT(B40,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H40" s="16">
-        <f>VLOOKUP(RIGHT(B40,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I40" s="16">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="J40" s="16">
-        <f>ROUND(IF(OR(G40=0,VALUE(LEFT(B40,1))&gt;2),0,I40+VLOOKUP(VALUE(LEFT(B40,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>7.1</v>
-      </c>
-      <c r="K40" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A41" s="33">
-        <v>35</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B41,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Trịnh Uyên</v>
-      </c>
-      <c r="D41" s="16">
-        <f>VLOOKUP(RIGHT(B41,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="16">
-        <f>VLOOKUP(RIGHT(B41,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="16">
-        <f>VLOOKUP(RIGHT(B41,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="16">
-        <f>VLOOKUP(RIGHT(B41,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
-        <f>VLOOKUP(RIGHT(B41,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I41" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J41" s="16">
-        <f>ROUND(IF(OR(G41=0,VALUE(LEFT(B41,1))&gt;2),0,I41+VLOOKUP(VALUE(LEFT(B41,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A42" s="33">
-        <v>36</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B42,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Anh Thư</v>
-      </c>
-      <c r="D42" s="16">
-        <f>VLOOKUP(RIGHT(B42,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="16">
-        <f>VLOOKUP(RIGHT(B42,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="F42" s="16">
-        <f>VLOOKUP(RIGHT(B42,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G42" s="16">
-        <f>VLOOKUP(RIGHT(B42,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="16">
-        <f>VLOOKUP(RIGHT(B42,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I42" s="16">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J42" s="16">
-        <f>ROUND(IF(OR(G42=0,VALUE(LEFT(B42,1))&gt;2),0,I42+VLOOKUP(VALUE(LEFT(B42,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>5.6</v>
-      </c>
-      <c r="K42" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A43" s="33">
-        <v>37</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B43,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Huỳnh Lê Tỷ</v>
-      </c>
-      <c r="D43" s="16">
-        <f>VLOOKUP(RIGHT(B43,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="16">
-        <f>VLOOKUP(RIGHT(B43,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F43" s="16">
-        <f>VLOOKUP(RIGHT(B43,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G43" s="16">
-        <f>VLOOKUP(RIGHT(B43,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H43" s="16">
-        <f>VLOOKUP(RIGHT(B43,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>6.7</v>
-      </c>
-      <c r="I43" s="16">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="J43" s="16">
-        <f>ROUND(IF(OR(G43=0,VALUE(LEFT(B43,1))&gt;2),0,I43+VLOOKUP(VALUE(LEFT(B43,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.6</v>
-      </c>
-      <c r="K43" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A44" s="33">
-        <v>38</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B44,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Nguyễn Ngọc Luyến</v>
-      </c>
-      <c r="D44" s="16">
-        <f>VLOOKUP(RIGHT(B44,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="E44" s="16">
-        <f>VLOOKUP(RIGHT(B44,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F44" s="16">
-        <f>VLOOKUP(RIGHT(B44,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.45</v>
-      </c>
-      <c r="G44" s="16">
-        <f>VLOOKUP(RIGHT(B44,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="H44" s="16">
-        <f>VLOOKUP(RIGHT(B44,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="J44" s="16">
-        <f>ROUND(IF(OR(G44=0,VALUE(LEFT(B44,1))&gt;2),0,I44+VLOOKUP(VALUE(LEFT(B44,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>6.5</v>
-      </c>
-      <c r="K44" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A45" s="33">
-        <v>39</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="64" t="str">
-        <f>VLOOKUP(RIGHT(B45,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
-        <v>Võ Thị Thùy Trang</v>
-      </c>
-      <c r="D45" s="16">
-        <f>VLOOKUP(RIGHT(B45,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E45" s="16">
-        <f>VLOOKUP(RIGHT(B45,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F45" s="16">
-        <f>VLOOKUP(RIGHT(B45,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G45" s="16">
-        <f>VLOOKUP(RIGHT(B45,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="16">
-        <f>VLOOKUP(RIGHT(B45,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="J45" s="16">
-        <f>ROUND(IF(OR(G45=0,VALUE(LEFT(B45,1))&gt;2),0,I45+VLOOKUP(VALUE(LEFT(B45,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K45" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE2BE1-AB3F-4491-8625-8089E12FF561}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="10" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6303,16 +4502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="43"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="41.4" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
@@ -6465,16 +4664,16 @@
       <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="1:6" ht="31.8" customHeight="1" thickBot="1">
       <c r="A13" s="18" t="s">
@@ -6671,10 +4870,10 @@
         <v>103</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="23.4" customHeight="1" thickBot="1">
       <c r="A24" s="27">
@@ -6687,10 +4886,10 @@
         <v>71</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="42">
         <f>COUNTIF('Điểm tổng hợp'!G7:G45,0)+COUNTIF('Điểm tổng hợp'!H7:H45,-3)</f>
         <v>9</v>
       </c>
@@ -6706,8 +4905,8 @@
         <v>101</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" ht="23.4" customHeight="1" thickBot="1">
       <c r="A26" s="27">
@@ -6720,8 +4919,8 @@
         <v>67</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6" ht="25.2" customHeight="1" thickBot="1">
       <c r="A27" s="27">
@@ -6734,10 +4933,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="42">
         <f>COUNTIFS('Điểm tổng hợp'!J7:J45,"&gt;=7",'Điểm tổng hợp'!K7:K45,"A")
 +COUNTIFS('Điểm tổng hợp'!J7:J45,"&gt;=7",'Điểm tổng hợp'!K7:K45,"B+")</f>
         <v>6</v>
@@ -6754,8 +4953,8 @@
         <v>99</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" ht="25.2" customHeight="1" thickBot="1">
       <c r="A29" s="27">
@@ -6768,8 +4967,8 @@
         <v>111</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="1:6" ht="23.4" customHeight="1" thickBot="1">
       <c r="A30" s="27">
@@ -7126,12 +5325,1903 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF633C0-DA7F-47E1-9597-FCB1D9655FA4}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1043</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37">
+        <v>8</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B7,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Phước Hiếu</v>
+      </c>
+      <c r="D7" s="16">
+        <f>VLOOKUP(RIGHT(B7,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E7" s="16">
+        <f>VLOOKUP(RIGHT(B7,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="16">
+        <f>VLOOKUP(RIGHT(B7,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="16">
+        <f>VLOOKUP(RIGHT(B7,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="16">
+        <f>VLOOKUP(RIGHT(B7,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="I7" s="16">
+        <f>ROUND(IF(H7=-3,0,D7+E7+F7+G7+H7*0.6),1)</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="16">
+        <f>ROUND(IF(OR(G7=0,VALUE(LEFT(B7,1))&gt;2),0,I7+VLOOKUP(VALUE(LEFT(B7,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="35" t="str">
+        <f>IF(J7=9,"A",
+IF(J7&gt;=8,"B+",
+IF(J7&gt;=7,"B",
+IF(J7&gt;=6.5,"C+",
+IF(J7&gt;=5.5,"C",
+IF(J7&gt;=5,"D+",
+IF(J7&gt;=4,"D","F")))))))</f>
+        <v>D+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A8" s="33">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B8,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Lý Minh Trí</v>
+      </c>
+      <c r="D8" s="16">
+        <f>VLOOKUP(RIGHT(B8,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="16">
+        <f>VLOOKUP(RIGHT(B8,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F8" s="16">
+        <f>VLOOKUP(RIGHT(B8,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="16">
+        <f>VLOOKUP(RIGHT(B8,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <f>VLOOKUP(RIGHT(B8,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ref="I8:I45" si="0">ROUND(IF(H8=-3,0,D8+E8+F8+G8+H8*0.6),1)</f>
+        <v>5.7</v>
+      </c>
+      <c r="J8" s="16">
+        <f>ROUND(IF(OR(G8=0,VALUE(LEFT(B8,1))&gt;2),0,I8+VLOOKUP(VALUE(LEFT(B8,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.2</v>
+      </c>
+      <c r="K8" s="35" t="str">
+        <f t="shared" ref="K8:K45" si="1">IF(J8=9,"A",
+IF(J8&gt;=8,"B+",
+IF(J8&gt;=7,"B",
+IF(J8&gt;=6.5,"C+",
+IF(J8&gt;=5.5,"C",
+IF(J8&gt;=5,"D+",
+IF(J8&gt;=4,"D","F")))))))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A9" s="33">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B9,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Kiều Mi</v>
+      </c>
+      <c r="D9" s="16">
+        <f>VLOOKUP(RIGHT(B9,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="16">
+        <f>VLOOKUP(RIGHT(B9,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="16">
+        <f>VLOOKUP(RIGHT(B9,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="16">
+        <f>VLOOKUP(RIGHT(B9,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="16">
+        <f>VLOOKUP(RIGHT(B9,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.8</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="J9" s="16">
+        <f>ROUND(IF(OR(G9=0,VALUE(LEFT(B9,1))&gt;2),0,I9+VLOOKUP(VALUE(LEFT(B9,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="K9" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A10" s="33">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B10,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Đặng Duy Linh</v>
+      </c>
+      <c r="D10" s="16">
+        <f>VLOOKUP(RIGHT(B10,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="16">
+        <f>VLOOKUP(RIGHT(B10,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="16">
+        <f>VLOOKUP(RIGHT(B10,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G10" s="16">
+        <f>VLOOKUP(RIGHT(B10,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <f>VLOOKUP(RIGHT(B10,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="J10" s="16">
+        <f>ROUND(IF(OR(G10=0,VALUE(LEFT(B10,1))&gt;2),0,I10+VLOOKUP(VALUE(LEFT(B10,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>5.7</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A11" s="33">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B11,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Lê Thị Trúc Linh</v>
+      </c>
+      <c r="D11" s="16">
+        <f>VLOOKUP(RIGHT(B11,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E11" s="16">
+        <f>VLOOKUP(RIGHT(B11,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="16">
+        <f>VLOOKUP(RIGHT(B11,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="16">
+        <f>VLOOKUP(RIGHT(B11,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="16">
+        <f>VLOOKUP(RIGHT(B11,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="J11" s="16">
+        <f>ROUND(IF(OR(G11=0,VALUE(LEFT(B11,1))&gt;2),0,I11+VLOOKUP(VALUE(LEFT(B11,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A12" s="33">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B12,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Phạm Thị Huỳnh Như</v>
+      </c>
+      <c r="D12" s="16">
+        <f>VLOOKUP(RIGHT(B12,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="16">
+        <f>VLOOKUP(RIGHT(B12,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F12" s="16">
+        <f>VLOOKUP(RIGHT(B12,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="16">
+        <f>VLOOKUP(RIGHT(B12,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="16">
+        <f>VLOOKUP(RIGHT(B12,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="J12" s="16">
+        <f>ROUND(IF(OR(G12=0,VALUE(LEFT(B12,1))&gt;2),0,I12+VLOOKUP(VALUE(LEFT(B12,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>8.1</v>
+      </c>
+      <c r="K12" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A13" s="33">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B13,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Lê Minh Thông</v>
+      </c>
+      <c r="D13" s="16">
+        <f>VLOOKUP(RIGHT(B13,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="16">
+        <f>VLOOKUP(RIGHT(B13,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="16">
+        <f>VLOOKUP(RIGHT(B13,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="16">
+        <f>VLOOKUP(RIGHT(B13,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <f>VLOOKUP(RIGHT(B13,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.3</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="J13" s="16">
+        <f>ROUND(IF(OR(G13=0,VALUE(LEFT(B13,1))&gt;2),0,I13+VLOOKUP(VALUE(LEFT(B13,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="K13" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A14" s="33">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B14,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Quách Thu Vân</v>
+      </c>
+      <c r="D14" s="16">
+        <f>VLOOKUP(RIGHT(B14,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E14" s="16">
+        <f>VLOOKUP(RIGHT(B14,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="16">
+        <f>VLOOKUP(RIGHT(B14,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="16">
+        <f>VLOOKUP(RIGHT(B14,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <f>VLOOKUP(RIGHT(B14,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.7</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="J14" s="16">
+        <f>ROUND(IF(OR(G14=0,VALUE(LEFT(B14,1))&gt;2),0,I14+VLOOKUP(VALUE(LEFT(B14,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7.9</v>
+      </c>
+      <c r="K14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A15" s="33">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B15,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Trần Thị Kim Khoa</v>
+      </c>
+      <c r="D15" s="16">
+        <f>VLOOKUP(RIGHT(B15,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="16">
+        <f>VLOOKUP(RIGHT(B15,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="16">
+        <f>VLOOKUP(RIGHT(B15,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="16">
+        <f>VLOOKUP(RIGHT(B15,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <f>VLOOKUP(RIGHT(B15,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f>ROUND(IF(OR(G15=0,VALUE(LEFT(B15,1))&gt;2),0,I15+VLOOKUP(VALUE(LEFT(B15,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A16" s="33">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B16,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Huỳnh Thị Hồng Loan</v>
+      </c>
+      <c r="D16" s="16">
+        <f>VLOOKUP(RIGHT(B16,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E16" s="16">
+        <f>VLOOKUP(RIGHT(B16,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="16">
+        <f>VLOOKUP(RIGHT(B16,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="16">
+        <f>VLOOKUP(RIGHT(B16,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f>VLOOKUP(RIGHT(B16,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.8</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="J16" s="16">
+        <f>ROUND(IF(OR(G16=0,VALUE(LEFT(B16,1))&gt;2),0,I16+VLOOKUP(VALUE(LEFT(B16,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A17" s="33">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B17,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Trần Thị Thanh Nguyên</v>
+      </c>
+      <c r="D17" s="16">
+        <f>VLOOKUP(RIGHT(B17,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E17" s="16">
+        <f>VLOOKUP(RIGHT(B17,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="16">
+        <f>VLOOKUP(RIGHT(B17,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="16">
+        <f>VLOOKUP(RIGHT(B17,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H17" s="16">
+        <f>VLOOKUP(RIGHT(B17,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.3</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="J17" s="16">
+        <f>ROUND(IF(OR(G17=0,VALUE(LEFT(B17,1))&gt;2),0,I17+VLOOKUP(VALUE(LEFT(B17,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.8</v>
+      </c>
+      <c r="K17" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A18" s="33">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B18,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Thị Thúy Nga</v>
+      </c>
+      <c r="D18" s="16">
+        <f>VLOOKUP(RIGHT(B18,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="16">
+        <f>VLOOKUP(RIGHT(B18,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="16">
+        <f>VLOOKUP(RIGHT(B18,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G18" s="16">
+        <f>VLOOKUP(RIGHT(B18,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="16">
+        <f>VLOOKUP(RIGHT(B18,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="J18" s="16">
+        <f>ROUND(IF(OR(G18=0,VALUE(LEFT(B18,1))&gt;2),0,I18+VLOOKUP(VALUE(LEFT(B18,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7</v>
+      </c>
+      <c r="K18" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A19" s="33">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B19,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Vũ Mạnh Thắng</v>
+      </c>
+      <c r="D19" s="16">
+        <f>VLOOKUP(RIGHT(B19,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="16">
+        <f>VLOOKUP(RIGHT(B19,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="16">
+        <f>VLOOKUP(RIGHT(B19,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="16">
+        <f>VLOOKUP(RIGHT(B19,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="16">
+        <f>VLOOKUP(RIGHT(B19,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="J19" s="16">
+        <f>ROUND(IF(OR(G19=0,VALUE(LEFT(B19,1))&gt;2),0,I19+VLOOKUP(VALUE(LEFT(B19,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.9</v>
+      </c>
+      <c r="K19" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A20" s="33">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B20,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Cao Ngọc Quyên</v>
+      </c>
+      <c r="D20" s="16">
+        <f>VLOOKUP(RIGHT(B20,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="16">
+        <f>VLOOKUP(RIGHT(B20,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="16">
+        <f>VLOOKUP(RIGHT(B20,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G20" s="16">
+        <f>VLOOKUP(RIGHT(B20,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="16">
+        <f>VLOOKUP(RIGHT(B20,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="J20" s="16">
+        <f>ROUND(IF(OR(G20=0,VALUE(LEFT(B20,1))&gt;2),0,I20+VLOOKUP(VALUE(LEFT(B20,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="K20" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A21" s="33">
+        <v>15</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B21,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Chí Thanh</v>
+      </c>
+      <c r="D21" s="16">
+        <f>VLOOKUP(RIGHT(B21,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="16">
+        <f>VLOOKUP(RIGHT(B21,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F21" s="16">
+        <f>VLOOKUP(RIGHT(B21,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="16">
+        <f>VLOOKUP(RIGHT(B21,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="16">
+        <f>VLOOKUP(RIGHT(B21,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f>ROUND(IF(OR(G21=0,VALUE(LEFT(B21,1))&gt;2),0,I21+VLOOKUP(VALUE(LEFT(B21,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A22" s="33">
+        <v>16</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B22,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Bích Ngân</v>
+      </c>
+      <c r="D22" s="16">
+        <f>VLOOKUP(RIGHT(B22,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="16">
+        <f>VLOOKUP(RIGHT(B22,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F22" s="16">
+        <f>VLOOKUP(RIGHT(B22,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="16">
+        <f>VLOOKUP(RIGHT(B22,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="16">
+        <f>VLOOKUP(RIGHT(B22,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.7</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="J22" s="16">
+        <f>ROUND(IF(OR(G22=0,VALUE(LEFT(B22,1))&gt;2),0,I22+VLOOKUP(VALUE(LEFT(B22,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.7</v>
+      </c>
+      <c r="K22" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A23" s="33">
+        <v>17</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B23,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Hải Anh</v>
+      </c>
+      <c r="D23" s="16">
+        <f>VLOOKUP(RIGHT(B23,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="16">
+        <f>VLOOKUP(RIGHT(B23,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="16">
+        <f>VLOOKUP(RIGHT(B23,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G23" s="16">
+        <f>VLOOKUP(RIGHT(B23,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="16">
+        <f>VLOOKUP(RIGHT(B23,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="J23" s="16">
+        <f>ROUND(IF(OR(G23=0,VALUE(LEFT(B23,1))&gt;2),0,I23+VLOOKUP(VALUE(LEFT(B23,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7.5</v>
+      </c>
+      <c r="K23" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A24" s="33">
+        <v>18</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B24,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Hoàng Châu</v>
+      </c>
+      <c r="D24" s="16">
+        <f>VLOOKUP(RIGHT(B24,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="16">
+        <f>VLOOKUP(RIGHT(B24,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="16">
+        <f>VLOOKUP(RIGHT(B24,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="16">
+        <f>VLOOKUP(RIGHT(B24,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="16">
+        <f>VLOOKUP(RIGHT(B24,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="J24" s="16">
+        <f>ROUND(IF(OR(G24=0,VALUE(LEFT(B24,1))&gt;2),0,I24+VLOOKUP(VALUE(LEFT(B24,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="K24" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A25" s="33">
+        <v>19</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B25,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Trần Nam Dương</v>
+      </c>
+      <c r="D25" s="16">
+        <f>VLOOKUP(RIGHT(B25,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="16">
+        <f>VLOOKUP(RIGHT(B25,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="16">
+        <f>VLOOKUP(RIGHT(B25,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G25" s="16">
+        <f>VLOOKUP(RIGHT(B25,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="H25" s="16">
+        <f>VLOOKUP(RIGHT(B25,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <f>ROUND(IF(OR(G25=0,VALUE(LEFT(B25,1))&gt;2),0,I25+VLOOKUP(VALUE(LEFT(B25,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A26" s="33">
+        <v>20</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B26,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Đào Nguyễn Duy Khanh</v>
+      </c>
+      <c r="D26" s="16">
+        <f>VLOOKUP(RIGHT(B26,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="E26" s="16">
+        <f>VLOOKUP(RIGHT(B26,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="16">
+        <f>VLOOKUP(RIGHT(B26,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f>VLOOKUP(RIGHT(B26,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.85</v>
+      </c>
+      <c r="H26" s="16">
+        <f>VLOOKUP(RIGHT(B26,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="J26" s="16">
+        <f>ROUND(IF(OR(G26=0,VALUE(LEFT(B26,1))&gt;2),0,I26+VLOOKUP(VALUE(LEFT(B26,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K26" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A27" s="33">
+        <v>21</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B27,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Ngô Hùng Vĩ</v>
+      </c>
+      <c r="D27" s="16">
+        <f>VLOOKUP(RIGHT(B27,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="16">
+        <f>VLOOKUP(RIGHT(B27,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="16">
+        <f>VLOOKUP(RIGHT(B27,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G27" s="16">
+        <f>VLOOKUP(RIGHT(B27,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="H27" s="16">
+        <f>VLOOKUP(RIGHT(B27,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.7</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="J27" s="16">
+        <f>ROUND(IF(OR(G27=0,VALUE(LEFT(B27,1))&gt;2),0,I27+VLOOKUP(VALUE(LEFT(B27,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7.7</v>
+      </c>
+      <c r="K27" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A28" s="33">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B28,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Lê Thanh Tùng</v>
+      </c>
+      <c r="D28" s="16">
+        <f>VLOOKUP(RIGHT(B28,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="16">
+        <f>VLOOKUP(RIGHT(B28,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="16">
+        <f>VLOOKUP(RIGHT(B28,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="16">
+        <f>VLOOKUP(RIGHT(B28,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <f>VLOOKUP(RIGHT(B28,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="J28" s="16">
+        <f>ROUND(IF(OR(G28=0,VALUE(LEFT(B28,1))&gt;2),0,I28+VLOOKUP(VALUE(LEFT(B28,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A29" s="33">
+        <v>23</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B29,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Lê Hồng Quốc Vương</v>
+      </c>
+      <c r="D29" s="16">
+        <f>VLOOKUP(RIGHT(B29,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="16">
+        <f>VLOOKUP(RIGHT(B29,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="16">
+        <f>VLOOKUP(RIGHT(B29,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="16">
+        <f>VLOOKUP(RIGHT(B29,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="16">
+        <f>VLOOKUP(RIGHT(B29,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="J29" s="16">
+        <f>ROUND(IF(OR(G29=0,VALUE(LEFT(B29,1))&gt;2),0,I29+VLOOKUP(VALUE(LEFT(B29,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>8.5</v>
+      </c>
+      <c r="K29" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A30" s="33">
+        <v>24</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B30,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Huỳnh Hoàng Ẩn</v>
+      </c>
+      <c r="D30" s="16">
+        <f>VLOOKUP(RIGHT(B30,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E30" s="16">
+        <f>VLOOKUP(RIGHT(B30,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="16">
+        <f>VLOOKUP(RIGHT(B30,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G30" s="16">
+        <f>VLOOKUP(RIGHT(B30,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H30" s="16">
+        <f>VLOOKUP(RIGHT(B30,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="J30" s="16">
+        <f>ROUND(IF(OR(G30=0,VALUE(LEFT(B30,1))&gt;2),0,I30+VLOOKUP(VALUE(LEFT(B30,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>8</v>
+      </c>
+      <c r="K30" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A31" s="33">
+        <v>25</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B31,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Hồ Thị Mỷ Huyền</v>
+      </c>
+      <c r="D31" s="16">
+        <f>VLOOKUP(RIGHT(B31,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="16">
+        <f>VLOOKUP(RIGHT(B31,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="16">
+        <f>VLOOKUP(RIGHT(B31,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="16">
+        <f>VLOOKUP(RIGHT(B31,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="16">
+        <f>VLOOKUP(RIGHT(B31,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.8</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="J31" s="16">
+        <f>ROUND(IF(OR(G31=0,VALUE(LEFT(B31,1))&gt;2),0,I31+VLOOKUP(VALUE(LEFT(B31,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.3</v>
+      </c>
+      <c r="K31" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A32" s="33">
+        <v>26</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B32,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Đặng Trung Kiên</v>
+      </c>
+      <c r="D32" s="16">
+        <f>VLOOKUP(RIGHT(B32,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="16">
+        <f>VLOOKUP(RIGHT(B32,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="16">
+        <f>VLOOKUP(RIGHT(B32,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G32" s="16">
+        <f>VLOOKUP(RIGHT(B32,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="16">
+        <f>VLOOKUP(RIGHT(B32,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.8</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="J32" s="16">
+        <f>ROUND(IF(OR(G32=0,VALUE(LEFT(B32,1))&gt;2),0,I32+VLOOKUP(VALUE(LEFT(B32,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7.9</v>
+      </c>
+      <c r="K32" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A33" s="33">
+        <v>27</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B33,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Ngụy Hữu Lộc</v>
+      </c>
+      <c r="D33" s="16">
+        <f>VLOOKUP(RIGHT(B33,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="16">
+        <f>VLOOKUP(RIGHT(B33,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="16">
+        <f>VLOOKUP(RIGHT(B33,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G33" s="16">
+        <f>VLOOKUP(RIGHT(B33,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="16">
+        <f>VLOOKUP(RIGHT(B33,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="J33" s="16">
+        <f>ROUND(IF(OR(G33=0,VALUE(LEFT(B33,1))&gt;2),0,I33+VLOOKUP(VALUE(LEFT(B33,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>9.1</v>
+      </c>
+      <c r="K33" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A34" s="33">
+        <v>28</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B34,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Trà Mi</v>
+      </c>
+      <c r="D34" s="16">
+        <f>VLOOKUP(RIGHT(B34,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="16">
+        <f>VLOOKUP(RIGHT(B34,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F34" s="16">
+        <f>VLOOKUP(RIGHT(B34,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G34" s="16">
+        <f>VLOOKUP(RIGHT(B34,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="16">
+        <f>VLOOKUP(RIGHT(B34,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.8</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="J34" s="16">
+        <f>ROUND(IF(OR(G34=0,VALUE(LEFT(B34,1))&gt;2),0,I34+VLOOKUP(VALUE(LEFT(B34,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>8.1</v>
+      </c>
+      <c r="K34" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A35" s="33">
+        <v>29</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B35,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Lại Ngọc Hoàng Phi</v>
+      </c>
+      <c r="D35" s="16">
+        <f>VLOOKUP(RIGHT(B35,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="16">
+        <f>VLOOKUP(RIGHT(B35,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="16">
+        <f>VLOOKUP(RIGHT(B35,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="16">
+        <f>VLOOKUP(RIGHT(B35,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <f>VLOOKUP(RIGHT(B35,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.7</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="J35" s="16">
+        <f>ROUND(IF(OR(G35=0,VALUE(LEFT(B35,1))&gt;2),0,I35+VLOOKUP(VALUE(LEFT(B35,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A36" s="33">
+        <v>30</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B36,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Khắc Minh Phúc</v>
+      </c>
+      <c r="D36" s="16">
+        <f>VLOOKUP(RIGHT(B36,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="16">
+        <f>VLOOKUP(RIGHT(B36,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="16">
+        <f>VLOOKUP(RIGHT(B36,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G36" s="16">
+        <f>VLOOKUP(RIGHT(B36,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="16">
+        <f>VLOOKUP(RIGHT(B36,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f>ROUND(IF(OR(G36=0,VALUE(LEFT(B36,1))&gt;2),0,I36+VLOOKUP(VALUE(LEFT(B36,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A37" s="33">
+        <v>31</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B37,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Trần Thị Hoàng Quyên</v>
+      </c>
+      <c r="D37" s="16">
+        <f>VLOOKUP(RIGHT(B37,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E37" s="16">
+        <f>VLOOKUP(RIGHT(B37,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="16">
+        <f>VLOOKUP(RIGHT(B37,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="16">
+        <f>VLOOKUP(RIGHT(B37,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="16">
+        <f>VLOOKUP(RIGHT(B37,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="J37" s="16">
+        <f>ROUND(IF(OR(G37=0,VALUE(LEFT(B37,1))&gt;2),0,I37+VLOOKUP(VALUE(LEFT(B37,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>8.9</v>
+      </c>
+      <c r="K37" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A38" s="33">
+        <v>32</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B38,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Trương Quốc Thái</v>
+      </c>
+      <c r="D38" s="16">
+        <f>VLOOKUP(RIGHT(B38,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="16">
+        <f>VLOOKUP(RIGHT(B38,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="16">
+        <f>VLOOKUP(RIGHT(B38,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G38" s="16">
+        <f>VLOOKUP(RIGHT(B38,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="16">
+        <f>VLOOKUP(RIGHT(B38,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="J38" s="16">
+        <f>ROUND(IF(OR(G38=0,VALUE(LEFT(B38,1))&gt;2),0,I38+VLOOKUP(VALUE(LEFT(B38,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7.8</v>
+      </c>
+      <c r="K38" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A39" s="33">
+        <v>33</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B39,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Thị Phương Thảo</v>
+      </c>
+      <c r="D39" s="16">
+        <f>VLOOKUP(RIGHT(B39,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E39" s="16">
+        <f>VLOOKUP(RIGHT(B39,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F39" s="16">
+        <f>VLOOKUP(RIGHT(B39,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G39" s="16">
+        <f>VLOOKUP(RIGHT(B39,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="16">
+        <f>VLOOKUP(RIGHT(B39,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <f>ROUND(IF(OR(G39=0,VALUE(LEFT(B39,1))&gt;2),0,I39+VLOOKUP(VALUE(LEFT(B39,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A40" s="33">
+        <v>34</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B40,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Chí Tôn</v>
+      </c>
+      <c r="D40" s="16">
+        <f>VLOOKUP(RIGHT(B40,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="16">
+        <f>VLOOKUP(RIGHT(B40,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <f>VLOOKUP(RIGHT(B40,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G40" s="16">
+        <f>VLOOKUP(RIGHT(B40,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="16">
+        <f>VLOOKUP(RIGHT(B40,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="J40" s="16">
+        <f>ROUND(IF(OR(G40=0,VALUE(LEFT(B40,1))&gt;2),0,I40+VLOOKUP(VALUE(LEFT(B40,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>7.1</v>
+      </c>
+      <c r="K40" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A41" s="33">
+        <v>35</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B41,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Trịnh Uyên</v>
+      </c>
+      <c r="D41" s="16">
+        <f>VLOOKUP(RIGHT(B41,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="16">
+        <f>VLOOKUP(RIGHT(B41,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <f>VLOOKUP(RIGHT(B41,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <f>VLOOKUP(RIGHT(B41,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <f>VLOOKUP(RIGHT(B41,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="16">
+        <f>ROUND(IF(OR(G41=0,VALUE(LEFT(B41,1))&gt;2),0,I41+VLOOKUP(VALUE(LEFT(B41,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A42" s="33">
+        <v>36</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B42,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Anh Thư</v>
+      </c>
+      <c r="D42" s="16">
+        <f>VLOOKUP(RIGHT(B42,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="16">
+        <f>VLOOKUP(RIGHT(B42,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F42" s="16">
+        <f>VLOOKUP(RIGHT(B42,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G42" s="16">
+        <f>VLOOKUP(RIGHT(B42,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="16">
+        <f>VLOOKUP(RIGHT(B42,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J42" s="16">
+        <f>ROUND(IF(OR(G42=0,VALUE(LEFT(B42,1))&gt;2),0,I42+VLOOKUP(VALUE(LEFT(B42,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="K42" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A43" s="33">
+        <v>37</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B43,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Huỳnh Lê Tỷ</v>
+      </c>
+      <c r="D43" s="16">
+        <f>VLOOKUP(RIGHT(B43,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="16">
+        <f>VLOOKUP(RIGHT(B43,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F43" s="16">
+        <f>VLOOKUP(RIGHT(B43,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G43" s="16">
+        <f>VLOOKUP(RIGHT(B43,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="16">
+        <f>VLOOKUP(RIGHT(B43,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>6.7</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="J43" s="16">
+        <f>ROUND(IF(OR(G43=0,VALUE(LEFT(B43,1))&gt;2),0,I43+VLOOKUP(VALUE(LEFT(B43,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.6</v>
+      </c>
+      <c r="K43" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A44" s="33">
+        <v>38</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B44,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Nguyễn Ngọc Luyến</v>
+      </c>
+      <c r="D44" s="16">
+        <f>VLOOKUP(RIGHT(B44,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="16">
+        <f>VLOOKUP(RIGHT(B44,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F44" s="16">
+        <f>VLOOKUP(RIGHT(B44,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G44" s="16">
+        <f>VLOOKUP(RIGHT(B44,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="16">
+        <f>VLOOKUP(RIGHT(B44,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="J44" s="16">
+        <f>ROUND(IF(OR(G44=0,VALUE(LEFT(B44,1))&gt;2),0,I44+VLOOKUP(VALUE(LEFT(B44,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K44" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A45" s="33">
+        <v>39</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="36" t="str">
+        <f>VLOOKUP(RIGHT(B45,8), 'Các bảng tham chiếu &amp; Thống kê'!$B$14:$C$52, 2, FALSE)</f>
+        <v>Võ Thị Thùy Trang</v>
+      </c>
+      <c r="D45" s="16">
+        <f>VLOOKUP(RIGHT(B45,8),'Điểm thực hành các buổi '!$B$2:$F$41,3,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E45" s="16">
+        <f>VLOOKUP(RIGHT(B45,8),'Điểm thực hành các buổi '!$B$2:$E$41,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="16">
+        <f>VLOOKUP(RIGHT(B45,8),'Điểm thực hành các buổi '!$B$2:$F$41,5,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="16">
+        <f>VLOOKUP(RIGHT(B45,8),'Điểm bài tập lớn'!$B$2:$D$41,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="16">
+        <f>VLOOKUP(RIGHT(B45,8),'Điểm lý thuyết'!$B$2:$D$41,3,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="J45" s="16">
+        <f>ROUND(IF(OR(G45=0,VALUE(LEFT(B45,1))&gt;2),0,I45+VLOOKUP(VALUE(LEFT(B45,1)),'Các bảng tham chiếu &amp; Thống kê'!$E$3:$F$5,2,0)),1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K45" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3381D62-1482-45B5-A972-2D2AC070F72F}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7143,14 +7233,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="31.8" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -7964,8 +8054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AEA923-BBF0-4FC3-A221-D42B71AC4FA3}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7977,12 +8070,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
@@ -8557,7 +8650,10 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <pane xSplit="8" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8568,12 +8664,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" ht="19.8" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
